--- a/Test/all_breakthroughs_tot.xlsx
+++ b/Test/all_breakthroughs_tot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_FHNW\HS19\HS19CH4 - Steinschlagrisiko\FHNW_HS19_Steinschlag\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43556B2-61EA-4BAE-86AE-8500DB378906}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2438638-FEC0-4C61-B134-AC227741B417}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3498,6 +3498,614 @@
         <v>4250.82</v>
       </c>
     </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>2068</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>623.75263610000002</v>
+      </c>
+      <c r="F82">
+        <v>6</v>
+      </c>
+      <c r="G82">
+        <v>49638</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>553.61</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>47.47</v>
+      </c>
+      <c r="L82">
+        <v>2672.27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1015</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>503.34323360000002</v>
+      </c>
+      <c r="F83">
+        <v>15</v>
+      </c>
+      <c r="G83">
+        <v>24375</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>736.14</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>36.979999999999997</v>
+      </c>
+      <c r="L83">
+        <v>2783.06</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>2437</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>611.8458756</v>
+      </c>
+      <c r="F84">
+        <v>16</v>
+      </c>
+      <c r="G84">
+        <v>58504</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>573.05999999999995</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>46.21</v>
+      </c>
+      <c r="L84">
+        <v>2995.36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1578</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>525.36592970000004</v>
+      </c>
+      <c r="F85">
+        <v>12</v>
+      </c>
+      <c r="G85">
+        <v>37884</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>617.51</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>41.25</v>
+      </c>
+      <c r="L85">
+        <v>2633.04</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>2171</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1240.85068</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>52107</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>1115.8399999999999</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>47.16</v>
+      </c>
+      <c r="L86">
+        <v>1115.8399999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>3524</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>635.23906769999996</v>
+      </c>
+      <c r="F87">
+        <v>23</v>
+      </c>
+      <c r="G87">
+        <v>84599</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>766.97</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="L87">
+        <v>2965.75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>932</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>537.61415350000004</v>
+      </c>
+      <c r="F88">
+        <v>23</v>
+      </c>
+      <c r="G88">
+        <v>22391</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>745.01</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>37.99</v>
+      </c>
+      <c r="L88">
+        <v>3850.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1924</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>642.09364500000004</v>
+      </c>
+      <c r="F89">
+        <v>8</v>
+      </c>
+      <c r="G89">
+        <v>46184</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>664.83</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>43.95</v>
+      </c>
+      <c r="L89">
+        <v>3150.26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1186</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>657.65820599999995</v>
+      </c>
+      <c r="F90">
+        <v>22</v>
+      </c>
+      <c r="G90">
+        <v>28486</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>631.45000000000005</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>45.64</v>
+      </c>
+      <c r="L90">
+        <v>3529.15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1180</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1506.743007</v>
+      </c>
+      <c r="F91">
+        <v>14</v>
+      </c>
+      <c r="G91">
+        <v>28334</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>1129.6099999999999</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>51.65</v>
+      </c>
+      <c r="L91">
+        <v>1163.55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>2897</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>537.90570549999995</v>
+      </c>
+      <c r="F92">
+        <v>12</v>
+      </c>
+      <c r="G92">
+        <v>69540</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>609.29</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>42.02</v>
+      </c>
+      <c r="L92">
+        <v>3610.95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>454</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>610.22937720000004</v>
+      </c>
+      <c r="F93">
+        <v>23</v>
+      </c>
+      <c r="G93">
+        <v>10919</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>631.54999999999995</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>43.96</v>
+      </c>
+      <c r="L93">
+        <v>3243.81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>669</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>505.30139370000001</v>
+      </c>
+      <c r="F94">
+        <v>19</v>
+      </c>
+      <c r="G94">
+        <v>16075</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>511.72</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>44.44</v>
+      </c>
+      <c r="L94">
+        <v>2638.88</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>488</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>776.20627090000005</v>
+      </c>
+      <c r="F95">
+        <v>20</v>
+      </c>
+      <c r="G95">
+        <v>11732</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>930.3</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>40.85</v>
+      </c>
+      <c r="L95">
+        <v>3663.17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>828</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>501.80416880000001</v>
+      </c>
+      <c r="F96">
+        <v>17</v>
+      </c>
+      <c r="G96">
+        <v>19889</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>464.15</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>46.5</v>
+      </c>
+      <c r="L96">
+        <v>2812.64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>2923</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1062.458637</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>70153</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>975.17</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>46.68</v>
+      </c>
+      <c r="L97">
+        <v>975.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
